--- a/padam_excel/TS 1.1 Padam Input.xlsx
+++ b/padam_excel/TS 1.1 Padam Input.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6878" uniqueCount="2085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6878" uniqueCount="2084">
   <si>
     <t>1.1.1.1</t>
   </si>
@@ -5518,9 +5518,6 @@
   </si>
   <si>
     <t>paqteq |</t>
-  </si>
-  <si>
-    <t>naH# |</t>
   </si>
   <si>
     <t>deqveShu# |</t>
@@ -38493,8 +38490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A499" workbookViewId="0">
-      <selection activeCell="H510" sqref="H510"/>
+    <sheetView tabSelected="1" topLeftCell="A1297" workbookViewId="0">
+      <selection activeCell="E1304" sqref="E1304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -38707,7 +38704,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="C19" s="25" t="s">
         <v>1219</v>
@@ -38740,7 +38737,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>1219</v>
@@ -38916,7 +38913,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C38" s="25" t="s">
         <v>1219</v>
@@ -39147,7 +39144,7 @@
         <v>16</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="C59" s="25" t="s">
         <v>1255</v>
@@ -39290,7 +39287,7 @@
         <v>29</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C72" s="25" t="s">
         <v>1255</v>
@@ -39312,7 +39309,7 @@
         <v>31</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C74" s="25" t="s">
         <v>1255</v>
@@ -39521,7 +39518,7 @@
         <v>50</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C93" s="25" t="s">
         <v>1255</v>
@@ -39686,7 +39683,7 @@
         <v>15</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="C108" s="25" t="s">
         <v>1291</v>
@@ -39818,7 +39815,7 @@
         <v>27</v>
       </c>
       <c r="B120" s="24" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="C120" s="25" t="s">
         <v>1291</v>
@@ -39983,7 +39980,7 @@
         <v>4</v>
       </c>
       <c r="B135" s="24" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="C135" s="25" t="s">
         <v>1321</v>
@@ -40071,7 +40068,7 @@
         <v>12</v>
       </c>
       <c r="B143" s="24" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C143" s="25" t="s">
         <v>1321</v>
@@ -40181,7 +40178,7 @@
         <v>22</v>
       </c>
       <c r="B153" s="24" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C153" s="25" t="s">
         <v>1321</v>
@@ -40324,7 +40321,7 @@
         <v>35</v>
       </c>
       <c r="B166" s="27" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="C166" s="25" t="s">
         <v>1321</v>
@@ -40346,7 +40343,7 @@
         <v>37</v>
       </c>
       <c r="B168" s="24" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="C168" s="25" t="s">
         <v>1321</v>
@@ -40368,7 +40365,7 @@
         <v>39</v>
       </c>
       <c r="B170" s="24" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C170" s="25" t="s">
         <v>1321</v>
@@ -40390,7 +40387,7 @@
         <v>41</v>
       </c>
       <c r="B172" s="24" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C172" s="25" t="s">
         <v>1321</v>
@@ -40423,7 +40420,7 @@
         <v>44</v>
       </c>
       <c r="B175" s="24" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C175" s="25" t="s">
         <v>1321</v>
@@ -40445,7 +40442,7 @@
         <v>46</v>
       </c>
       <c r="B177" s="24" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="C177" s="25" t="s">
         <v>1321</v>
@@ -40896,7 +40893,7 @@
         <v>29</v>
       </c>
       <c r="B218" s="24" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C218" s="25" t="s">
         <v>1354</v>
@@ -40929,7 +40926,7 @@
         <v>32</v>
       </c>
       <c r="B221" s="24" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="C221" s="25" t="s">
         <v>1354</v>
@@ -41204,7 +41201,7 @@
         <v>7</v>
       </c>
       <c r="B246" s="24" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C246" s="25" t="s">
         <v>1380</v>
@@ -41226,7 +41223,7 @@
         <v>9</v>
       </c>
       <c r="B248" s="24" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="C248" s="25" t="s">
         <v>1380</v>
@@ -41589,7 +41586,7 @@
         <v>42</v>
       </c>
       <c r="B281" s="24" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="C281" s="25" t="s">
         <v>1380</v>
@@ -41908,7 +41905,7 @@
         <v>25</v>
       </c>
       <c r="B310" s="24" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C310" s="25" t="s">
         <v>1408</v>
@@ -41952,7 +41949,7 @@
         <v>29</v>
       </c>
       <c r="B314" s="24" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C314" s="25" t="s">
         <v>1408</v>
@@ -41963,7 +41960,7 @@
         <v>30</v>
       </c>
       <c r="B315" s="24" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C315" s="25" t="s">
         <v>1408</v>
@@ -42084,7 +42081,7 @@
         <v>41</v>
       </c>
       <c r="B326" s="24" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="C326" s="25" t="s">
         <v>1408</v>
@@ -42348,7 +42345,7 @@
         <v>15</v>
       </c>
       <c r="B350" s="24" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="C350" s="25" t="s">
         <v>1436</v>
@@ -42359,7 +42356,7 @@
         <v>16</v>
       </c>
       <c r="B351" s="24" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="C351" s="25" t="s">
         <v>1436</v>
@@ -42469,7 +42466,7 @@
         <v>26</v>
       </c>
       <c r="B361" s="24" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="C361" s="25" t="s">
         <v>1436</v>
@@ -42557,7 +42554,7 @@
         <v>34</v>
       </c>
       <c r="B369" s="24" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="C369" s="25" t="s">
         <v>1436</v>
@@ -42612,7 +42609,7 @@
         <v>39</v>
       </c>
       <c r="B374" s="24" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C374" s="25" t="s">
         <v>1436</v>
@@ -42656,7 +42653,7 @@
         <v>43</v>
       </c>
       <c r="B378" s="24" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C378" s="25" t="s">
         <v>1436</v>
@@ -43272,7 +43269,7 @@
         <v>38</v>
       </c>
       <c r="B434" s="24" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C434" s="25" t="s">
         <v>1461</v>
@@ -43294,7 +43291,7 @@
         <v>40</v>
       </c>
       <c r="B436" s="24" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="C436" s="25" t="s">
         <v>1461</v>
@@ -43393,7 +43390,7 @@
         <v>49</v>
       </c>
       <c r="B445" s="24" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="C445" s="25" t="s">
         <v>1461</v>
@@ -43415,7 +43412,7 @@
         <v>51</v>
       </c>
       <c r="B447" s="24" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C447" s="25" t="s">
         <v>1461</v>
@@ -43437,7 +43434,7 @@
         <v>53</v>
       </c>
       <c r="B449" s="24" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="C449" s="25" t="s">
         <v>1461</v>
@@ -43657,7 +43654,7 @@
         <v>8</v>
       </c>
       <c r="B469" s="24" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C469" s="25" t="s">
         <v>1477</v>
@@ -43690,7 +43687,7 @@
         <v>11</v>
       </c>
       <c r="B472" s="24" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="C472" s="25" t="s">
         <v>1477</v>
@@ -43723,7 +43720,7 @@
         <v>14</v>
       </c>
       <c r="B475" s="24" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="C475" s="25" t="s">
         <v>1477</v>
@@ -43855,7 +43852,7 @@
         <v>26</v>
       </c>
       <c r="B487" s="24" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C487" s="25" t="s">
         <v>1477</v>
@@ -43877,7 +43874,7 @@
         <v>28</v>
       </c>
       <c r="B489" s="24" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="C489" s="25" t="s">
         <v>1477</v>
@@ -43976,7 +43973,7 @@
         <v>37</v>
       </c>
       <c r="B498" s="24" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="C498" s="25" t="s">
         <v>1477</v>
@@ -43998,7 +43995,7 @@
         <v>39</v>
       </c>
       <c r="B500" s="27" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="C500" s="25" t="s">
         <v>1477</v>
@@ -44020,7 +44017,7 @@
         <v>41</v>
       </c>
       <c r="B502" s="24" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="C502" s="25" t="s">
         <v>1477</v>
@@ -44163,7 +44160,7 @@
         <v>4</v>
       </c>
       <c r="B515" s="24" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="C515" s="25" t="s">
         <v>1499</v>
@@ -44284,7 +44281,7 @@
         <v>15</v>
       </c>
       <c r="B526" s="24" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C526" s="25" t="s">
         <v>1499</v>
@@ -44306,7 +44303,7 @@
         <v>17</v>
       </c>
       <c r="B528" s="24" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="C528" s="25" t="s">
         <v>1499</v>
@@ -44383,7 +44380,7 @@
         <v>24</v>
       </c>
       <c r="B535" s="24" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C535" s="25" t="s">
         <v>1499</v>
@@ -44427,7 +44424,7 @@
         <v>28</v>
       </c>
       <c r="B539" s="24" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="C539" s="25" t="s">
         <v>1499</v>
@@ -44625,7 +44622,7 @@
         <v>46</v>
       </c>
       <c r="B557" s="24" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="C557" s="25" t="s">
         <v>1499</v>
@@ -44845,7 +44842,7 @@
         <v>18</v>
       </c>
       <c r="B577" s="24" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C577" s="25" t="s">
         <v>1519</v>
@@ -45032,7 +45029,7 @@
         <v>35</v>
       </c>
       <c r="B594" s="24" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="C594" s="25" t="s">
         <v>1519</v>
@@ -45087,7 +45084,7 @@
         <v>40</v>
       </c>
       <c r="B599" s="24" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="C599" s="25" t="s">
         <v>1519</v>
@@ -45131,7 +45128,7 @@
         <v>44</v>
       </c>
       <c r="B603" s="24" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C603" s="25" t="s">
         <v>1519</v>
@@ -45516,7 +45513,7 @@
         <v>7</v>
       </c>
       <c r="B638" s="24" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="C638" s="25" t="s">
         <v>1554</v>
@@ -45527,7 +45524,7 @@
         <v>8</v>
       </c>
       <c r="B639" s="24" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="C639" s="25" t="s">
         <v>1554</v>
@@ -45582,7 +45579,7 @@
         <v>13</v>
       </c>
       <c r="B644" s="24" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="C644" s="25" t="s">
         <v>1554</v>
@@ -45648,7 +45645,7 @@
         <v>19</v>
       </c>
       <c r="B650" s="24" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C650" s="25" t="s">
         <v>1554</v>
@@ -45703,7 +45700,7 @@
         <v>24</v>
       </c>
       <c r="B655" s="24" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C655" s="25" t="s">
         <v>1554</v>
@@ -45945,7 +45942,7 @@
         <v>46</v>
       </c>
       <c r="B677" s="24" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C677" s="25" t="s">
         <v>1554</v>
@@ -45978,7 +45975,7 @@
         <v>49</v>
       </c>
       <c r="B680" s="24" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="C680" s="25" t="s">
         <v>1554</v>
@@ -46011,7 +46008,7 @@
         <v>2</v>
       </c>
       <c r="B683" s="24" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C683" s="25" t="s">
         <v>1579</v>
@@ -46253,7 +46250,7 @@
         <v>24</v>
       </c>
       <c r="B705" s="24" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C705" s="25" t="s">
         <v>1579</v>
@@ -46319,7 +46316,7 @@
         <v>30</v>
       </c>
       <c r="B711" s="24" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="C711" s="25" t="s">
         <v>1579</v>
@@ -46902,7 +46899,7 @@
         <v>33</v>
       </c>
       <c r="B764" s="24" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="C764" s="25" t="s">
         <v>1582</v>
@@ -46968,7 +46965,7 @@
         <v>39</v>
       </c>
       <c r="B770" s="24" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C770" s="25" t="s">
         <v>1582</v>
@@ -47078,7 +47075,7 @@
         <v>49</v>
       </c>
       <c r="B780" s="24" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="C780" s="25" t="s">
         <v>1582</v>
@@ -47089,7 +47086,7 @@
         <v>50</v>
       </c>
       <c r="B781" s="24" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="C781" s="25" t="s">
         <v>1582</v>
@@ -47166,7 +47163,7 @@
         <v>57</v>
       </c>
       <c r="B788" s="24" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C788" s="25" t="s">
         <v>1582</v>
@@ -47331,7 +47328,7 @@
         <v>11</v>
       </c>
       <c r="B803" s="24" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="C803" s="25" t="s">
         <v>1613</v>
@@ -47441,7 +47438,7 @@
         <v>21</v>
       </c>
       <c r="B813" s="24" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="C813" s="25" t="s">
         <v>1613</v>
@@ -47474,7 +47471,7 @@
         <v>24</v>
       </c>
       <c r="B816" s="24" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C816" s="25" t="s">
         <v>1613</v>
@@ -47584,7 +47581,7 @@
         <v>34</v>
       </c>
       <c r="B826" s="24" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="C826" s="25" t="s">
         <v>1613</v>
@@ -47606,7 +47603,7 @@
         <v>36</v>
       </c>
       <c r="B828" s="24" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C828" s="25" t="s">
         <v>1613</v>
@@ -47650,7 +47647,7 @@
         <v>40</v>
       </c>
       <c r="B832" s="24" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="C832" s="25" t="s">
         <v>1613</v>
@@ -47694,7 +47691,7 @@
         <v>44</v>
       </c>
       <c r="B836" s="24" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C836" s="25" t="s">
         <v>1613</v>
@@ -47716,7 +47713,7 @@
         <v>46</v>
       </c>
       <c r="B838" s="24" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="C838" s="25" t="s">
         <v>1613</v>
@@ -47749,7 +47746,7 @@
         <v>49</v>
       </c>
       <c r="B841" s="24" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="C841" s="25" t="s">
         <v>1613</v>
@@ -47793,7 +47790,7 @@
         <v>3</v>
       </c>
       <c r="B845" s="24" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="C845" s="25" t="s">
         <v>1632</v>
@@ -47914,7 +47911,7 @@
         <v>14</v>
       </c>
       <c r="B856" s="24" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="C856" s="25" t="s">
         <v>1632</v>
@@ -47958,7 +47955,7 @@
         <v>18</v>
       </c>
       <c r="B860" s="24" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C860" s="25" t="s">
         <v>1632</v>
@@ -48068,7 +48065,7 @@
         <v>28</v>
       </c>
       <c r="B870" s="24" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="C870" s="25" t="s">
         <v>1632</v>
@@ -48662,7 +48659,7 @@
         <v>32</v>
       </c>
       <c r="B924" s="24" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="C924" s="25" t="s">
         <v>1661</v>
@@ -48893,7 +48890,7 @@
         <v>53</v>
       </c>
       <c r="B945" s="27" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="C945" s="25" t="s">
         <v>1661</v>
@@ -48915,7 +48912,7 @@
         <v>55</v>
       </c>
       <c r="B947" s="24" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="C947" s="25" t="s">
         <v>1661</v>
@@ -49025,7 +49022,7 @@
         <v>65</v>
       </c>
       <c r="B957" s="24" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="C957" s="25" t="s">
         <v>1661</v>
@@ -49190,7 +49187,7 @@
         <v>14</v>
       </c>
       <c r="B972" s="24" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="C972" s="25" t="s">
         <v>1680</v>
@@ -49289,7 +49286,7 @@
         <v>23</v>
       </c>
       <c r="B981" s="24" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="C981" s="25" t="s">
         <v>1680</v>
@@ -49300,7 +49297,7 @@
         <v>24</v>
       </c>
       <c r="B982" s="24" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="C982" s="25" t="s">
         <v>1680</v>
@@ -49333,7 +49330,7 @@
         <v>27</v>
       </c>
       <c r="B985" s="27" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="C985" s="25" t="s">
         <v>1680</v>
@@ -49443,7 +49440,7 @@
         <v>37</v>
       </c>
       <c r="B995" s="24" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="C995" s="25" t="s">
         <v>1680</v>
@@ -49839,7 +49836,7 @@
         <v>23</v>
       </c>
       <c r="B1031" s="24" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="C1031" s="25" t="s">
         <v>1700</v>
@@ -49850,7 +49847,7 @@
         <v>24</v>
       </c>
       <c r="B1032" s="24" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C1032" s="25" t="s">
         <v>1700</v>
@@ -50180,7 +50177,7 @@
         <v>54</v>
       </c>
       <c r="B1062" s="24" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="C1062" s="25" t="s">
         <v>1700</v>
@@ -50466,7 +50463,7 @@
         <v>15</v>
       </c>
       <c r="B1088" s="24" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="C1088" s="25" t="s">
         <v>1738</v>
@@ -50477,7 +50474,7 @@
         <v>16</v>
       </c>
       <c r="B1089" s="24" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="C1089" s="25" t="s">
         <v>1738</v>
@@ -50554,7 +50551,7 @@
         <v>23</v>
       </c>
       <c r="B1096" s="24" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="C1096" s="25" t="s">
         <v>1738</v>
@@ -50565,7 +50562,7 @@
         <v>24</v>
       </c>
       <c r="B1097" s="24" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="C1097" s="25" t="s">
         <v>1738</v>
@@ -50708,7 +50705,7 @@
         <v>37</v>
       </c>
       <c r="B1110" s="24" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C1110" s="25" t="s">
         <v>1738</v>
@@ -50807,7 +50804,7 @@
         <v>46</v>
       </c>
       <c r="B1119" s="24" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="C1119" s="25" t="s">
         <v>1738</v>
@@ -50840,7 +50837,7 @@
         <v>49</v>
       </c>
       <c r="B1122" s="24" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="C1122" s="25" t="s">
         <v>1738</v>
@@ -51115,7 +51112,7 @@
         <v>3</v>
       </c>
       <c r="B1147" s="24" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="C1147" s="25" t="s">
         <v>1767</v>
@@ -51126,7 +51123,7 @@
         <v>4</v>
       </c>
       <c r="B1148" s="24" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="C1148" s="25" t="s">
         <v>1767</v>
@@ -51203,7 +51200,7 @@
         <v>11</v>
       </c>
       <c r="B1155" s="24" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="C1155" s="25" t="s">
         <v>1767</v>
@@ -51236,7 +51233,7 @@
         <v>14</v>
       </c>
       <c r="B1158" s="24" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="C1158" s="25" t="s">
         <v>1767</v>
@@ -51258,7 +51255,7 @@
         <v>16</v>
       </c>
       <c r="B1160" s="24" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="C1160" s="25" t="s">
         <v>1767</v>
@@ -51335,7 +51332,7 @@
         <v>23</v>
       </c>
       <c r="B1167" s="24" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="C1167" s="25" t="s">
         <v>1767</v>
@@ -51390,7 +51387,7 @@
         <v>28</v>
       </c>
       <c r="B1172" s="24" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="C1172" s="25" t="s">
         <v>1767</v>
@@ -51500,7 +51497,7 @@
         <v>38</v>
       </c>
       <c r="B1182" s="24" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="C1182" s="25" t="s">
         <v>1767</v>
@@ -51709,7 +51706,7 @@
         <v>7</v>
       </c>
       <c r="B1201" s="24" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="C1201" s="25" t="s">
         <v>1787</v>
@@ -51874,7 +51871,7 @@
         <v>22</v>
       </c>
       <c r="B1216" s="24" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="C1216" s="25" t="s">
         <v>1787</v>
@@ -51885,7 +51882,7 @@
         <v>23</v>
       </c>
       <c r="B1217" s="24" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C1217" s="25" t="s">
         <v>1787</v>
@@ -51918,7 +51915,7 @@
         <v>26</v>
       </c>
       <c r="B1220" s="24" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C1220" s="25" t="s">
         <v>1787</v>
@@ -52116,7 +52113,7 @@
         <v>44</v>
       </c>
       <c r="B1238" s="24" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C1238" s="25" t="s">
         <v>1787</v>
@@ -52160,7 +52157,7 @@
         <v>48</v>
       </c>
       <c r="B1242" s="24" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="C1242" s="25" t="s">
         <v>1787</v>
@@ -52171,7 +52168,7 @@
         <v>49</v>
       </c>
       <c r="B1243" s="27" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="C1243" s="25" t="s">
         <v>1787</v>
@@ -52457,7 +52454,7 @@
         <v>25</v>
       </c>
       <c r="B1269" s="24" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="C1269" s="25" t="s">
         <v>1804</v>
@@ -52468,7 +52465,7 @@
         <v>26</v>
       </c>
       <c r="B1270" s="24" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="C1270" s="25" t="s">
         <v>1804</v>
@@ -52534,7 +52531,7 @@
         <v>32</v>
       </c>
       <c r="B1276" s="24" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C1276" s="25" t="s">
         <v>1804</v>
@@ -52556,7 +52553,7 @@
         <v>34</v>
       </c>
       <c r="B1278" s="24" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="C1278" s="25" t="s">
         <v>1804</v>
@@ -52578,7 +52575,7 @@
         <v>36</v>
       </c>
       <c r="B1280" s="24" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="C1280" s="25" t="s">
         <v>1804</v>
@@ -52655,7 +52652,7 @@
         <v>43</v>
       </c>
       <c r="B1287" s="24" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="C1287" s="25" t="s">
         <v>1804</v>
@@ -52699,7 +52696,7 @@
         <v>47</v>
       </c>
       <c r="B1291" s="24" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="C1291" s="25" t="s">
         <v>1804</v>
@@ -52786,8 +52783,8 @@
       <c r="A1299" s="23">
         <v>55</v>
       </c>
-      <c r="B1299" s="24" t="s">
-        <v>1831</v>
+      <c r="B1299" s="27" t="s">
+        <v>1392</v>
       </c>
       <c r="C1299" s="25" t="s">
         <v>1804</v>
@@ -52809,7 +52806,7 @@
         <v>57</v>
       </c>
       <c r="B1301" s="24" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C1301" s="25" t="s">
         <v>1804</v>
@@ -52842,7 +52839,7 @@
         <v>60</v>
       </c>
       <c r="B1304" s="24" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="C1304" s="25" t="s">
         <v>1804</v>
@@ -52864,7 +52861,7 @@
         <v>62</v>
       </c>
       <c r="B1306" s="24" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="C1306" s="25" t="s">
         <v>1804</v>
@@ -52875,7 +52872,7 @@
         <v>63</v>
       </c>
       <c r="B1307" s="24" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="C1307" s="25" t="s">
         <v>1804</v>
@@ -52886,10 +52883,10 @@
         <v>1</v>
       </c>
       <c r="B1308" s="24" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C1308" s="25" t="s">
         <v>1836</v>
-      </c>
-      <c r="C1308" s="25" t="s">
-        <v>1837</v>
       </c>
     </row>
     <row r="1309" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -52900,7 +52897,7 @@
         <v>1355</v>
       </c>
       <c r="C1309" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1310" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -52908,10 +52905,10 @@
         <v>3</v>
       </c>
       <c r="B1310" s="24" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="C1310" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1311" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -52919,10 +52916,10 @@
         <v>4</v>
       </c>
       <c r="B1311" s="24" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="C1311" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1312" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -52930,10 +52927,10 @@
         <v>5</v>
       </c>
       <c r="B1312" s="24" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C1312" s="25" t="s">
         <v>1836</v>
-      </c>
-      <c r="C1312" s="25" t="s">
-        <v>1837</v>
       </c>
     </row>
     <row r="1313" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -52941,10 +52938,10 @@
         <v>6</v>
       </c>
       <c r="B1313" s="24" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="C1313" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1314" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -52955,7 +52952,7 @@
         <v>1393</v>
       </c>
       <c r="C1314" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1315" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -52963,10 +52960,10 @@
         <v>8</v>
       </c>
       <c r="B1315" s="24" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="C1315" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1316" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -52974,10 +52971,10 @@
         <v>9</v>
       </c>
       <c r="B1316" s="24" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C1316" s="25" t="s">
         <v>1836</v>
-      </c>
-      <c r="C1316" s="25" t="s">
-        <v>1837</v>
       </c>
     </row>
     <row r="1317" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -52985,10 +52982,10 @@
         <v>10</v>
       </c>
       <c r="B1317" s="24" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="C1317" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1318" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -52996,10 +52993,10 @@
         <v>11</v>
       </c>
       <c r="B1318" s="24" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="C1318" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1319" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53007,10 +53004,10 @@
         <v>12</v>
       </c>
       <c r="B1319" s="24" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="C1319" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1320" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53018,10 +53015,10 @@
         <v>13</v>
       </c>
       <c r="B1320" s="24" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C1320" s="25" t="s">
         <v>1836</v>
-      </c>
-      <c r="C1320" s="25" t="s">
-        <v>1837</v>
       </c>
     </row>
     <row r="1321" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53032,7 +53029,7 @@
         <v>1766</v>
       </c>
       <c r="C1321" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1322" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53043,7 +53040,7 @@
         <v>1346</v>
       </c>
       <c r="C1322" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1323" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53051,10 +53048,10 @@
         <v>16</v>
       </c>
       <c r="B1323" s="24" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="C1323" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1324" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53065,7 +53062,7 @@
         <v>1355</v>
       </c>
       <c r="C1324" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1325" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53073,10 +53070,10 @@
         <v>18</v>
       </c>
       <c r="B1325" s="24" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="C1325" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1326" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53084,10 +53081,10 @@
         <v>19</v>
       </c>
       <c r="B1326" s="24" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="C1326" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1327" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53095,10 +53092,10 @@
         <v>20</v>
       </c>
       <c r="B1327" s="24" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="C1327" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1328" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53106,10 +53103,10 @@
         <v>21</v>
       </c>
       <c r="B1328" s="24" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="C1328" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1329" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53117,10 +53114,10 @@
         <v>22</v>
       </c>
       <c r="B1329" s="24" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="C1329" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1330" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53128,10 +53125,10 @@
         <v>23</v>
       </c>
       <c r="B1330" s="24" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="C1330" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1331" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53139,10 +53136,10 @@
         <v>24</v>
       </c>
       <c r="B1331" s="24" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="C1331" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1332" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53150,10 +53147,10 @@
         <v>25</v>
       </c>
       <c r="B1332" s="24" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="C1332" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1333" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53161,10 +53158,10 @@
         <v>26</v>
       </c>
       <c r="B1333" s="24" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="C1333" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1334" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53175,7 +53172,7 @@
         <v>1769</v>
       </c>
       <c r="C1334" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1335" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53183,10 +53180,10 @@
         <v>28</v>
       </c>
       <c r="B1335" s="24" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C1335" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1336" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53194,10 +53191,10 @@
         <v>29</v>
       </c>
       <c r="B1336" s="24" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="C1336" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1337" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53205,10 +53202,10 @@
         <v>30</v>
       </c>
       <c r="B1337" s="24" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="C1337" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1338" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53216,10 +53213,10 @@
         <v>31</v>
       </c>
       <c r="B1338" s="24" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C1338" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1339" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53227,10 +53224,10 @@
         <v>32</v>
       </c>
       <c r="B1339" s="24" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C1339" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1340" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53238,10 +53235,10 @@
         <v>33</v>
       </c>
       <c r="B1340" s="24" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="C1340" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1341" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53249,10 +53246,10 @@
         <v>34</v>
       </c>
       <c r="B1341" s="24" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="C1341" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1342" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53260,10 +53257,10 @@
         <v>35</v>
       </c>
       <c r="B1342" s="24" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C1342" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1343" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53271,10 +53268,10 @@
         <v>36</v>
       </c>
       <c r="B1343" s="24" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="C1343" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1344" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53282,10 +53279,10 @@
         <v>37</v>
       </c>
       <c r="B1344" s="24" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C1344" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1345" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53293,10 +53290,10 @@
         <v>38</v>
       </c>
       <c r="B1345" s="24" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="C1345" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1346" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53304,10 +53301,10 @@
         <v>39</v>
       </c>
       <c r="B1346" s="24" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="C1346" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1347" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53315,10 +53312,10 @@
         <v>40</v>
       </c>
       <c r="B1347" s="24" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="C1347" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1348" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53326,10 +53323,10 @@
         <v>41</v>
       </c>
       <c r="B1348" s="24" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C1348" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1349" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53337,10 +53334,10 @@
         <v>42</v>
       </c>
       <c r="B1349" s="24" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="C1349" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1350" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53348,10 +53345,10 @@
         <v>43</v>
       </c>
       <c r="B1350" s="24" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="C1350" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1351" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53359,10 +53356,10 @@
         <v>44</v>
       </c>
       <c r="B1351" s="24" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="C1351" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1352" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53370,10 +53367,10 @@
         <v>45</v>
       </c>
       <c r="B1352" s="24" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="C1352" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1353" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53381,10 +53378,10 @@
         <v>46</v>
       </c>
       <c r="B1353" s="24" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="C1353" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1354" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53395,7 +53392,7 @@
         <v>1820</v>
       </c>
       <c r="C1354" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1355" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53403,10 +53400,10 @@
         <v>48</v>
       </c>
       <c r="B1355" s="24" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="C1355" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1356" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53414,10 +53411,10 @@
         <v>49</v>
       </c>
       <c r="B1356" s="24" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="C1356" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1357" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53425,10 +53422,10 @@
         <v>50</v>
       </c>
       <c r="B1357" s="24" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="C1357" s="25" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1358" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53436,10 +53433,10 @@
         <v>1</v>
       </c>
       <c r="B1358" s="24" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="C1358" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1359" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53447,10 +53444,10 @@
         <v>2</v>
       </c>
       <c r="B1359" s="24" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="C1359" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1360" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53461,7 +53458,7 @@
         <v>1355</v>
       </c>
       <c r="C1360" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1361" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53469,10 +53466,10 @@
         <v>4</v>
       </c>
       <c r="B1361" s="24" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C1361" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1362" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53480,10 +53477,10 @@
         <v>5</v>
       </c>
       <c r="B1362" s="24" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="C1362" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1363" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53491,10 +53488,10 @@
         <v>6</v>
       </c>
       <c r="B1363" s="24" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="C1363" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1364" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53502,10 +53499,10 @@
         <v>7</v>
       </c>
       <c r="B1364" s="24" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C1364" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1365" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53513,10 +53510,10 @@
         <v>8</v>
       </c>
       <c r="B1365" s="24" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="C1365" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1366" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53524,10 +53521,10 @@
         <v>9</v>
       </c>
       <c r="B1366" s="24" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="C1366" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1367" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53535,10 +53532,10 @@
         <v>10</v>
       </c>
       <c r="B1367" s="24" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="C1367" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1368" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53549,7 +53546,7 @@
         <v>1292</v>
       </c>
       <c r="C1368" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1369" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53560,7 +53557,7 @@
         <v>1391</v>
       </c>
       <c r="C1369" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1370" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53571,7 +53568,7 @@
         <v>1220</v>
       </c>
       <c r="C1370" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1371" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53579,10 +53576,10 @@
         <v>14</v>
       </c>
       <c r="B1371" s="24" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="C1371" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1372" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53593,7 +53590,7 @@
         <v>1830</v>
       </c>
       <c r="C1372" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1373" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53601,10 +53598,10 @@
         <v>16</v>
       </c>
       <c r="B1373" s="24" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="C1373" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1374" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53615,7 +53612,7 @@
         <v>1395</v>
       </c>
       <c r="C1374" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1375" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53623,10 +53620,10 @@
         <v>18</v>
       </c>
       <c r="B1375" s="24" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C1375" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1376" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53634,10 +53631,10 @@
         <v>19</v>
       </c>
       <c r="B1376" s="24" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="C1376" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1377" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53645,10 +53642,10 @@
         <v>20</v>
       </c>
       <c r="B1377" s="24" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="C1377" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1378" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53656,10 +53653,10 @@
         <v>21</v>
       </c>
       <c r="B1378" s="24" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="C1378" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1379" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53667,10 +53664,10 @@
         <v>22</v>
       </c>
       <c r="B1379" s="24" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="C1379" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1380" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53678,10 +53675,10 @@
         <v>23</v>
       </c>
       <c r="B1380" s="24" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C1380" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1381" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53689,10 +53686,10 @@
         <v>24</v>
       </c>
       <c r="B1381" s="24" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="C1381" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1382" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53700,10 +53697,10 @@
         <v>25</v>
       </c>
       <c r="B1382" s="24" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C1382" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1383" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53711,10 +53708,10 @@
         <v>26</v>
       </c>
       <c r="B1383" s="24" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="C1383" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1384" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53725,7 +53722,7 @@
         <v>1806</v>
       </c>
       <c r="C1384" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1385" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53733,10 +53730,10 @@
         <v>28</v>
       </c>
       <c r="B1385" s="24" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="C1385" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1386" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53744,10 +53741,10 @@
         <v>29</v>
       </c>
       <c r="B1386" s="24" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="C1386" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1387" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53758,7 +53755,7 @@
         <v>1306</v>
       </c>
       <c r="C1387" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1388" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53769,7 +53766,7 @@
         <v>1392</v>
       </c>
       <c r="C1388" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1389" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53777,10 +53774,10 @@
         <v>32</v>
       </c>
       <c r="B1389" s="24" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C1389" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1390" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53788,10 +53785,10 @@
         <v>33</v>
       </c>
       <c r="B1390" s="24" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="C1390" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1391" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53799,10 +53796,10 @@
         <v>34</v>
       </c>
       <c r="B1391" s="24" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="C1391" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1392" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53810,10 +53807,10 @@
         <v>35</v>
       </c>
       <c r="B1392" s="24" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="C1392" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1393" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53821,10 +53818,10 @@
         <v>36</v>
       </c>
       <c r="B1393" s="24" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="C1393" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1394" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53835,7 +53832,7 @@
         <v>1228</v>
       </c>
       <c r="C1394" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1395" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53843,10 +53840,10 @@
         <v>38</v>
       </c>
       <c r="B1395" s="24" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="C1395" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1396" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53854,10 +53851,10 @@
         <v>39</v>
       </c>
       <c r="B1396" s="24" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C1396" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1397" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53865,10 +53862,10 @@
         <v>40</v>
       </c>
       <c r="B1397" s="24" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="C1397" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1398" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53879,7 +53876,7 @@
         <v>1292</v>
       </c>
       <c r="C1398" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1399" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53887,10 +53884,10 @@
         <v>42</v>
       </c>
       <c r="B1399" s="24" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="C1399" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1400" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53898,10 +53895,10 @@
         <v>43</v>
       </c>
       <c r="B1400" s="24" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="C1400" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1401" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53909,10 +53906,10 @@
         <v>44</v>
       </c>
       <c r="B1401" s="24" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="C1401" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1402" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53920,10 +53917,10 @@
         <v>45</v>
       </c>
       <c r="B1402" s="24" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="C1402" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1403" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53931,10 +53928,10 @@
         <v>46</v>
       </c>
       <c r="B1403" s="24" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="C1403" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1404" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53942,10 +53939,10 @@
         <v>47</v>
       </c>
       <c r="B1404" s="24" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="C1404" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1405" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53956,7 +53953,7 @@
         <v>1232</v>
       </c>
       <c r="C1405" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1406" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53967,7 +53964,7 @@
         <v>1306</v>
       </c>
       <c r="C1406" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1407" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53978,7 +53975,7 @@
         <v>1392</v>
       </c>
       <c r="C1407" s="25" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1408" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53986,10 +53983,10 @@
         <v>1</v>
       </c>
       <c r="B1408" s="24" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1408" s="25" t="s">
         <v>1902</v>
-      </c>
-      <c r="C1408" s="25" t="s">
-        <v>1903</v>
       </c>
     </row>
     <row r="1409" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -53997,10 +53994,10 @@
         <v>2</v>
       </c>
       <c r="B1409" s="24" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="C1409" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1410" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54008,10 +54005,10 @@
         <v>3</v>
       </c>
       <c r="B1410" s="24" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C1410" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1411" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54022,7 +54019,7 @@
         <v>1830</v>
       </c>
       <c r="C1411" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1412" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54030,10 +54027,10 @@
         <v>5</v>
       </c>
       <c r="B1412" s="24" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C1412" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1413" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54041,10 +54038,10 @@
         <v>6</v>
       </c>
       <c r="B1413" s="24" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="C1413" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1414" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54052,10 +54049,10 @@
         <v>7</v>
       </c>
       <c r="B1414" s="24" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="C1414" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1415" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54063,10 +54060,10 @@
         <v>8</v>
       </c>
       <c r="B1415" s="24" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="C1415" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1416" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54077,7 +54074,7 @@
         <v>1656</v>
       </c>
       <c r="C1416" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1417" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54085,10 +54082,10 @@
         <v>10</v>
       </c>
       <c r="B1417" s="24" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="C1417" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1418" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54096,10 +54093,10 @@
         <v>11</v>
       </c>
       <c r="B1418" s="24" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="C1418" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1419" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54107,10 +54104,10 @@
         <v>12</v>
       </c>
       <c r="B1419" s="24" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C1419" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1420" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54118,10 +54115,10 @@
         <v>13</v>
       </c>
       <c r="B1420" s="24" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="C1420" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1421" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54129,10 +54126,10 @@
         <v>14</v>
       </c>
       <c r="B1421" s="24" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="C1421" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1422" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54140,10 +54137,10 @@
         <v>15</v>
       </c>
       <c r="B1422" s="24" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C1422" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1423" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54151,10 +54148,10 @@
         <v>16</v>
       </c>
       <c r="B1423" s="24" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="C1423" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1424" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54165,7 +54162,7 @@
         <v>1392</v>
       </c>
       <c r="C1424" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1425" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54173,10 +54170,10 @@
         <v>18</v>
       </c>
       <c r="B1425" s="24" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="C1425" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1426" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54184,10 +54181,10 @@
         <v>19</v>
       </c>
       <c r="B1426" s="24" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="C1426" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1427" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54198,7 +54195,7 @@
         <v>1407</v>
       </c>
       <c r="C1427" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1428" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54206,10 +54203,10 @@
         <v>21</v>
       </c>
       <c r="B1428" s="24" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="C1428" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1429" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54217,10 +54214,10 @@
         <v>22</v>
       </c>
       <c r="B1429" s="24" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C1429" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1430" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54228,10 +54225,10 @@
         <v>23</v>
       </c>
       <c r="B1430" s="24" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="C1430" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1431" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54242,7 +54239,7 @@
         <v>1363</v>
       </c>
       <c r="C1431" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1432" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54250,10 +54247,10 @@
         <v>25</v>
       </c>
       <c r="B1432" s="24" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="C1432" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1433" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54264,7 +54261,7 @@
         <v>1568</v>
       </c>
       <c r="C1433" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1434" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54272,10 +54269,10 @@
         <v>27</v>
       </c>
       <c r="B1434" s="24" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="C1434" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1435" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54283,10 +54280,10 @@
         <v>28</v>
       </c>
       <c r="B1435" s="24" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="C1435" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1436" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54294,10 +54291,10 @@
         <v>29</v>
       </c>
       <c r="B1436" s="24" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="C1436" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1437" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54305,10 +54302,10 @@
         <v>30</v>
       </c>
       <c r="B1437" s="24" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="C1437" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1438" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54316,10 +54313,10 @@
         <v>31</v>
       </c>
       <c r="B1438" s="24" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="C1438" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1439" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54327,10 +54324,10 @@
         <v>32</v>
       </c>
       <c r="B1439" s="24" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="C1439" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1440" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54338,10 +54335,10 @@
         <v>33</v>
       </c>
       <c r="B1440" s="24" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="C1440" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1441" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54352,7 +54349,7 @@
         <v>1284</v>
       </c>
       <c r="C1441" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1442" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54360,10 +54357,10 @@
         <v>35</v>
       </c>
       <c r="B1442" s="24" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C1442" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1443" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54371,10 +54368,10 @@
         <v>36</v>
       </c>
       <c r="B1443" s="24" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="C1443" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1444" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54385,7 +54382,7 @@
         <v>1232</v>
       </c>
       <c r="C1444" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1445" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54396,7 +54393,7 @@
         <v>1279</v>
       </c>
       <c r="C1445" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1446" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54407,7 +54404,7 @@
         <v>1516</v>
       </c>
       <c r="C1446" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1447" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54415,10 +54412,10 @@
         <v>40</v>
       </c>
       <c r="B1447" s="24" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="C1447" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1448" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54426,10 +54423,10 @@
         <v>41</v>
       </c>
       <c r="B1448" s="24" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="C1448" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1449" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54437,10 +54434,10 @@
         <v>42</v>
       </c>
       <c r="B1449" s="24" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="C1449" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1450" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54448,10 +54445,10 @@
         <v>43</v>
       </c>
       <c r="B1450" s="24" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="C1450" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1451" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54459,10 +54456,10 @@
         <v>44</v>
       </c>
       <c r="B1451" s="24" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C1451" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1452" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54473,7 +54470,7 @@
         <v>1316</v>
       </c>
       <c r="C1452" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1453" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54481,10 +54478,10 @@
         <v>46</v>
       </c>
       <c r="B1453" s="24" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="C1453" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1454" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54495,7 +54492,7 @@
         <v>1543</v>
       </c>
       <c r="C1454" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1455" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54503,10 +54500,10 @@
         <v>48</v>
       </c>
       <c r="B1455" s="24" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="C1455" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1456" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54517,7 +54514,7 @@
         <v>1306</v>
       </c>
       <c r="C1456" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1457" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54525,10 +54522,10 @@
         <v>50</v>
       </c>
       <c r="B1457" s="24" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="C1457" s="25" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1458" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54539,7 +54536,7 @@
         <v>1306</v>
       </c>
       <c r="C1458" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1459" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54550,7 +54547,7 @@
         <v>1795</v>
       </c>
       <c r="C1459" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1460" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54561,7 +54558,7 @@
         <v>1391</v>
       </c>
       <c r="C1460" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1461" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54569,10 +54566,10 @@
         <v>4</v>
       </c>
       <c r="B1461" s="24" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="C1461" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1462" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54583,7 +54580,7 @@
         <v>1306</v>
       </c>
       <c r="C1462" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1463" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54591,10 +54588,10 @@
         <v>6</v>
       </c>
       <c r="B1463" s="24" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="C1463" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1464" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54605,7 +54602,7 @@
         <v>1306</v>
       </c>
       <c r="C1464" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1465" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54613,10 +54610,10 @@
         <v>8</v>
       </c>
       <c r="B1465" s="24" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="C1465" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1466" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54624,10 +54621,10 @@
         <v>9</v>
       </c>
       <c r="B1466" s="24" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="C1466" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1467" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54635,10 +54632,10 @@
         <v>10</v>
       </c>
       <c r="B1467" s="24" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="C1467" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1468" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54646,10 +54643,10 @@
         <v>11</v>
       </c>
       <c r="B1468" s="24" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="C1468" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1469" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54657,10 +54654,10 @@
         <v>12</v>
       </c>
       <c r="B1469" s="24" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C1469" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1470" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54671,7 +54668,7 @@
         <v>1337</v>
       </c>
       <c r="C1470" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1471" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54682,7 +54679,7 @@
         <v>1759</v>
       </c>
       <c r="C1471" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1472" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54690,10 +54687,10 @@
         <v>15</v>
       </c>
       <c r="B1472" s="24" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="C1472" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1473" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54701,10 +54698,10 @@
         <v>16</v>
       </c>
       <c r="B1473" s="24" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C1473" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1474" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54712,10 +54709,10 @@
         <v>17</v>
       </c>
       <c r="B1474" s="24" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="C1474" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1475" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54723,10 +54720,10 @@
         <v>18</v>
       </c>
       <c r="B1475" s="24" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="C1475" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1476" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54737,7 +54734,7 @@
         <v>1797</v>
       </c>
       <c r="C1476" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1477" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54745,10 +54742,10 @@
         <v>20</v>
       </c>
       <c r="B1477" s="24" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="C1477" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1478" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54759,7 +54756,7 @@
         <v>1797</v>
       </c>
       <c r="C1478" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1479" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54767,10 +54764,10 @@
         <v>22</v>
       </c>
       <c r="B1479" s="24" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="C1479" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1480" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54781,7 +54778,7 @@
         <v>1309</v>
       </c>
       <c r="C1480" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1481" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54789,10 +54786,10 @@
         <v>24</v>
       </c>
       <c r="B1481" s="24" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="C1481" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1482" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54803,7 +54800,7 @@
         <v>1407</v>
       </c>
       <c r="C1482" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1483" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54814,7 +54811,7 @@
         <v>1368</v>
       </c>
       <c r="C1483" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1484" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54822,10 +54819,10 @@
         <v>27</v>
       </c>
       <c r="B1484" s="24" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="C1484" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1485" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54833,10 +54830,10 @@
         <v>28</v>
       </c>
       <c r="B1485" s="24" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="C1485" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1486" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54847,7 +54844,7 @@
         <v>1363</v>
       </c>
       <c r="C1486" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1487" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54855,10 +54852,10 @@
         <v>30</v>
       </c>
       <c r="B1487" s="24" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="C1487" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1488" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54869,7 +54866,7 @@
         <v>1545</v>
       </c>
       <c r="C1488" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1489" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54877,10 +54874,10 @@
         <v>32</v>
       </c>
       <c r="B1489" s="24" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="C1489" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1490" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54888,10 +54885,10 @@
         <v>33</v>
       </c>
       <c r="B1490" s="24" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="C1490" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1491" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54899,10 +54896,10 @@
         <v>34</v>
       </c>
       <c r="B1491" s="24" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="C1491" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1492" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54913,7 +54910,7 @@
         <v>1575</v>
       </c>
       <c r="C1492" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1493" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54921,10 +54918,10 @@
         <v>36</v>
       </c>
       <c r="B1493" s="24" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="C1493" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1494" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54932,10 +54929,10 @@
         <v>37</v>
       </c>
       <c r="B1494" s="24" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="C1494" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1495" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54946,7 +54943,7 @@
         <v>1392</v>
       </c>
       <c r="C1495" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1496" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54957,7 +54954,7 @@
         <v>1599</v>
       </c>
       <c r="C1496" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1497" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54965,10 +54962,10 @@
         <v>40</v>
       </c>
       <c r="B1497" s="24" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="C1497" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1498" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54976,10 +54973,10 @@
         <v>41</v>
       </c>
       <c r="B1498" s="24" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="C1498" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1499" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54987,10 +54984,10 @@
         <v>42</v>
       </c>
       <c r="B1499" s="24" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="C1499" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1500" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -54998,10 +54995,10 @@
         <v>43</v>
       </c>
       <c r="B1500" s="24" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="C1500" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1501" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55009,10 +55006,10 @@
         <v>44</v>
       </c>
       <c r="B1501" s="24" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="C1501" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1502" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55023,7 +55020,7 @@
         <v>1368</v>
       </c>
       <c r="C1502" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1503" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55034,7 +55031,7 @@
         <v>1481</v>
       </c>
       <c r="C1503" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1504" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55042,10 +55039,10 @@
         <v>47</v>
       </c>
       <c r="B1504" s="24" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="C1504" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1505" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55056,7 +55053,7 @@
         <v>1257</v>
       </c>
       <c r="C1505" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1506" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55067,7 +55064,7 @@
         <v>1225</v>
       </c>
       <c r="C1506" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1507" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55075,10 +55072,10 @@
         <v>50</v>
       </c>
       <c r="B1507" s="24" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="C1507" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1508" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55086,10 +55083,10 @@
         <v>51</v>
       </c>
       <c r="B1508" s="24" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="C1508" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1509" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55097,10 +55094,10 @@
         <v>52</v>
       </c>
       <c r="B1509" s="24" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="C1509" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1510" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55111,7 +55108,7 @@
         <v>1368</v>
       </c>
       <c r="C1510" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1511" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55119,10 +55116,10 @@
         <v>54</v>
       </c>
       <c r="B1511" s="24" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="C1511" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1512" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55130,10 +55127,10 @@
         <v>55</v>
       </c>
       <c r="B1512" s="24" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="C1512" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1513" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55141,10 +55138,10 @@
         <v>56</v>
       </c>
       <c r="B1513" s="24" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="C1513" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1514" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55155,7 +55152,7 @@
         <v>1226</v>
       </c>
       <c r="C1514" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1515" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55166,7 +55163,7 @@
         <v>1292</v>
       </c>
       <c r="C1515" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1516" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55174,10 +55171,10 @@
         <v>59</v>
       </c>
       <c r="B1516" s="24" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C1516" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1517" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55185,10 +55182,10 @@
         <v>60</v>
       </c>
       <c r="B1517" s="24" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="C1517" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1518" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55196,10 +55193,10 @@
         <v>61</v>
       </c>
       <c r="B1518" s="24" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="C1518" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1519" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55207,10 +55204,10 @@
         <v>62</v>
       </c>
       <c r="B1519" s="24" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="C1519" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1520" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55218,10 +55215,10 @@
         <v>63</v>
       </c>
       <c r="B1520" s="24" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="C1520" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1521" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55232,7 +55229,7 @@
         <v>1543</v>
       </c>
       <c r="C1521" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1522" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55240,10 +55237,10 @@
         <v>65</v>
       </c>
       <c r="B1522" s="24" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="C1522" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1523" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55251,10 +55248,10 @@
         <v>66</v>
       </c>
       <c r="B1523" s="24" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="C1523" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1524" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55265,7 +55262,7 @@
         <v>1232</v>
       </c>
       <c r="C1524" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1525" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55273,10 +55270,10 @@
         <v>68</v>
       </c>
       <c r="B1525" s="24" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="C1525" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1526" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55284,10 +55281,10 @@
         <v>69</v>
       </c>
       <c r="B1526" s="24" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="C1526" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1527" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55295,10 +55292,10 @@
         <v>70</v>
       </c>
       <c r="B1527" s="24" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="C1527" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1528" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55309,7 +55306,7 @@
         <v>1470</v>
       </c>
       <c r="C1528" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1529" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55317,10 +55314,10 @@
         <v>72</v>
       </c>
       <c r="B1529" s="24" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="C1529" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1530" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
@@ -55328,15 +55325,15 @@
         <v>73</v>
       </c>
       <c r="B1530" s="24" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="C1530" s="25" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1531" spans="1:3" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B1531" s="24" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
     </row>
   </sheetData>
